--- a/eccrm-base/base-web/src/resources/export_customer.xlsx
+++ b/eccrm-base/base-web/src/resources/export_customer.xlsx
@@ -16,93 +16,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
-  <si>
-    <t>房屋编号</t>
-  </si>
-  <si>
-    <t>楼盘名称</t>
-  </si>
-  <si>
-    <t>楼栋</t>
-  </si>
-  <si>
-    <t>单元</t>
-  </si>
-  <si>
-    <t>楼层</t>
-  </si>
-  <si>
-    <t>门牌号</t>
-  </si>
-  <si>
-    <t>户型</t>
-  </si>
-  <si>
-    <t>房屋现状</t>
-  </si>
-  <si>
-    <t>业主姓名</t>
-  </si>
-  <si>
-    <t>业主电话</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+  <si>
+    <t>业主编号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>基本信息</t>
+  </si>
+  <si>
+    <t>联系方式</t>
   </si>
   <si>
     <t>状态</t>
   </si>
   <si>
-    <t>室</t>
-  </si>
-  <si>
-    <t>厅</t>
-  </si>
-  <si>
-    <t>厨</t>
-  </si>
-  <si>
-    <t>卫</t>
-  </si>
-  <si>
-    <t>#c.roomKey</t>
-  </si>
-  <si>
-    <t>#c.buildingName</t>
-  </si>
-  <si>
-    <t>#c.blockCode</t>
-  </si>
-  <si>
-    <t>#c.unitCode</t>
-  </si>
-  <si>
-    <t>#c.floor</t>
+    <t>工作单位</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>学历</t>
+  </si>
+  <si>
+    <t>婚姻状况</t>
+  </si>
+  <si>
+    <t>财产规模</t>
+  </si>
+  <si>
+    <t>家庭人口</t>
+  </si>
+  <si>
+    <t>年龄段</t>
+  </si>
+  <si>
+    <t>手机1</t>
+  </si>
+  <si>
+    <t>手机2</t>
+  </si>
+  <si>
+    <t>手机3</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>备注1</t>
+  </si>
+  <si>
+    <t>备注2</t>
+  </si>
+  <si>
+    <t>备注3</t>
+  </si>
+  <si>
+    <t>备注4</t>
+  </si>
+  <si>
+    <t>备注5</t>
   </si>
   <si>
     <t>#c.code</t>
   </si>
   <si>
-    <t>#c.type1</t>
-  </si>
-  <si>
-    <t>#c.type2</t>
-  </si>
-  <si>
-    <t>#c.type3</t>
-  </si>
-  <si>
-    <t>#c.type4</t>
-  </si>
-  <si>
-    <t>#c.houseUseTypeName</t>
-  </si>
-  <si>
-    <t>#c.cusName</t>
-  </si>
-  <si>
-    <t>#c.cusPhone</t>
+    <t>#c.name</t>
+  </si>
+  <si>
+    <t>#c.sexName</t>
+  </si>
+  <si>
+    <t>#c.educationName</t>
+  </si>
+  <si>
+    <t>#c.marriageName</t>
+  </si>
+  <si>
+    <t>#c.moneyName</t>
+  </si>
+  <si>
+    <t>#c.familyCounts</t>
+  </si>
+  <si>
+    <t>#c.ageName</t>
+  </si>
+  <si>
+    <t>#c.phone1</t>
+  </si>
+  <si>
+    <t>#c.phone2</t>
+  </si>
+  <si>
+    <t>#c.phone3</t>
+  </si>
+  <si>
+    <t>#c.email</t>
+  </si>
+  <si>
+    <t>#c.wechat</t>
   </si>
   <si>
     <t>#c.statusName</t>
+  </si>
+  <si>
+    <t>#c.company</t>
+  </si>
+  <si>
+    <t>#c.description</t>
+  </si>
+  <si>
+    <t>#c.c1</t>
+  </si>
+  <si>
+    <t>#c.c2</t>
+  </si>
+  <si>
+    <t>#c.c3</t>
+  </si>
+  <si>
+    <t>#c.c4</t>
+  </si>
+  <si>
+    <t>#c.c5</t>
   </si>
 </sst>
 </file>
@@ -110,12 +158,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,31 +195,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,31 +208,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,30 +316,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,21 +330,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -281,23 +345,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,7 +367,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,19 +481,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,25 +511,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,132 +547,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -527,13 +576,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,41 +654,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,11 +687,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,152 +741,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,17 +896,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1140,149 +1276,203 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="32.625" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="10.375" customWidth="1"/>
-    <col min="11" max="11" width="20.875" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="15.625" customWidth="1"/>
-    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="20.875" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="20" width="15.625" customWidth="1"/>
+    <col min="21" max="21" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:14">
+    <row r="1" ht="20" customHeight="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="P1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="10"/>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:14">
+    <row r="2" ht="20" customHeight="1" spans="1:21">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="K2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="6" t="s">
+    <row r="3" ht="18" customHeight="1" spans="1:21">
+      <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="G1:J1"/>
+  <mergeCells count="7">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="P1:U1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
